--- a/physics/contact_property_table.xlsx
+++ b/physics/contact_property_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jaofi-my.sharepoint.com/personal/gr263947_gradia_fi/Documents/Programming/2DPhysics/physics/surface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33f590e7dc48ac48/Documents/DATA/Programming/Python/2DPhysics/physics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC104826B1DF56DC5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76EBA3D8-4368-492C-BA90-2102EE9CB031}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104826B1DF56DC5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C27F809-2579-4CC1-972E-91CCFD046452}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>frictionless</t>
   </si>
@@ -49,14 +49,34 @@
   </si>
   <si>
     <t>1, 1.1, 0.8</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>0, 0.4, 0.2</t>
+  </si>
+  <si>
+    <t>0, 0, 0</t>
+  </si>
+  <si>
+    <t>0.5, 0.8, 0.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,29 +396,31 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -401,20 +429,22 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -423,17 +453,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -443,14 +475,16 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -461,9 +495,13 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -475,7 +513,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -489,7 +527,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -502,7 +540,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -515,7 +553,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -528,7 +566,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -542,7 +580,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -556,7 +594,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -570,7 +608,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -584,7 +622,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -598,7 +636,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -612,7 +650,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -626,7 +664,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -640,7 +678,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -654,7 +692,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -668,7 +706,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -682,7 +720,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -696,7 +734,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -710,7 +748,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -724,7 +762,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -738,7 +776,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -752,7 +790,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -766,7 +804,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -780,7 +818,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -794,7 +832,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -808,7 +846,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -822,7 +860,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -836,7 +874,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
